--- a/test/benchmark.xlsx
+++ b/test/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21405" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22166" windowHeight="12566"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>TotalHours</t>
   </si>
@@ -103,6 +103,6678 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Moderate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Scene (62 obj) </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25562489063867011"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>174.10161600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.93467870000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.48337240000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.04531950000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.33203520000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.75984099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.1243497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE93-41B9-852C-C50518E36D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Complex Scene (485 obj) </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5475.0828039999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1192.3839332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1211.8197218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1206.5309513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1223.0685536999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1179.1433287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-590F-4D9E-8F40-9B3BD0415436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Simple</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Scene (6 obj) </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60.737666400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.225256799999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.392410499999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.685701725000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.244833399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.082409466666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.351199800000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16D4-4175-AD72-6B57C73AF74C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> Time (S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Complex Scene (485 obj) </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5917113201169384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5180670899360171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5378718201143258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4765134279978831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6432716623485062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A7D-408F-B6A4-9CF7D98BBCE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Moderate Scene (62 obj) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95694574142779965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2945958514645339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3812620467831016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4965921957840895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4417178306818077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5527547447617438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9853-4A57-807C-8B50868E0DE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Simple Scene (6 obj</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>) </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9760934630646636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1592836790740904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1106681359861439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0427992124705778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2127544790037539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2561770266557066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBFE-4884-AE4E-C14DDDC97F47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1362803951"/>
+        <c:axId val="1362803119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362803951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>nThread</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1362803119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362803951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,20 +7040,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="17" max="17" width="1.69140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
@@ -401,7 +7076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -409,7 +7084,7 @@
         <v>1.5208563344444399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -417,7 +7092,7 @@
         <v>91.251380066666698</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -425,68 +7100,125 @@
         <v>5475.0828039999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>5475.0828039999997</v>
+      </c>
+      <c r="C8">
+        <v>1192.3839332</v>
+      </c>
+      <c r="D8">
+        <v>1211.8197218</v>
+      </c>
+      <c r="E8">
+        <v>1206.5309513</v>
+      </c>
+      <c r="F8">
+        <v>1223.0685536999999</v>
+      </c>
+      <c r="G8">
+        <v>1179.1433287</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f>$B$8/B8</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="0">$B$8/C8</f>
+        <v>4.5917113201169384</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.5180670899360171</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.5378718201143258</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.4765134279978831</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.6432716623485062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <f>AVERAGE(B15:B19)</f>
         <v>174.10161600000001</v>
       </c>
       <c r="C14">
-        <f>AVERAGE(C15:C18)</f>
         <v>181.93467870000001</v>
       </c>
       <c r="D14">
-        <f>AVERAGE(D15:D19)</f>
         <v>134.48337240000001</v>
       </c>
-      <c r="E14" t="e">
-        <f t="shared" ref="D14:H14" si="0">AVERAGE(E15:E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E14">
+        <v>126.04531950000001</v>
+      </c>
+      <c r="F14">
+        <v>116.33203520000001</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>132.96069215</v>
+        <v>120.75984099999999</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>125.23449454999999</v>
+        <v>112.1243497</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>174.10161600000001</v>
       </c>
@@ -496,28 +7228,73 @@
       <c r="D15">
         <v>134.48337240000001</v>
       </c>
+      <c r="E15">
+        <v>126.04531950000001</v>
+      </c>
+      <c r="F15">
+        <v>116.33203520000001</v>
+      </c>
       <c r="G15">
-        <v>131.67385300000001</v>
+        <v>120.75984099999999</v>
       </c>
       <c r="H15">
-        <v>122.5988329</v>
+        <v>112.1243497</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <f>$B$14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:H16" si="1">$B$14/C14</f>
+        <v>0.95694574142779965</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.2945958514645339</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.3812620467831016</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.4965921957840895</v>
+      </c>
       <c r="G16">
-        <v>134.24753129999999</v>
+        <f t="shared" si="1"/>
+        <v>1.4417178306818077</v>
       </c>
       <c r="H16">
-        <v>127.8701562</v>
+        <f t="shared" si="1"/>
+        <v>1.5527547447617438</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
       <c r="C20">
-        <f t="shared" ref="C20:H21" si="1">AVERAGE(C21:C25)</f>
-        <v>62.225256799999997</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -526,33 +7303,37 @@
         <v>60.737666400000002</v>
       </c>
       <c r="C21">
+        <f t="shared" ref="C21:H21" si="2">AVERAGE(C22:C26)</f>
         <v>62.225256799999997</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.392410499999997</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.685701725000001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.244833399999997</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.082409466666668</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.351199800000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>60.737666400000002</v>
       </c>
+      <c r="C22">
+        <v>62.225256799999997</v>
+      </c>
       <c r="D22">
         <v>53.771249400000002</v>
       </c>
@@ -569,7 +7350,7 @@
         <v>48.351199800000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D23">
         <v>51.013571599999999</v>
       </c>
@@ -580,7 +7361,7 @@
         <v>48.985981299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>57.388142999999999</v>
       </c>
@@ -588,12 +7369,44 @@
         <v>54.586991099999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E25">
         <v>48.284843600000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <f>$B$21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:H27" si="3">$B$21/C21</f>
+        <v>0.9760934630646636</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>1.1592836790740904</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1.1106681359861439</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1.0427992124705778</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1.2127544790037539</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1.2561770266557066</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>